--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradap\Desktop\testAutomationAssignment\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrashanthaKumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F6AD7B-BBF9-4E22-9590-82EC877E905D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="752"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductsPage" sheetId="5" r:id="rId1"/>
-    <sheet name="Settings" sheetId="11" r:id="rId2"/>
-    <sheet name="ShopByDepartment" sheetId="6" r:id="rId3"/>
-    <sheet name="HomePage" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,135 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Parameter</t>
   </si>
   <si>
-    <t>settlement_schedule_01</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>OCT</t>
-  </si>
-  <si>
-    <t>Hour</t>
-  </si>
-  <si>
-    <t>Minute</t>
-  </si>
-  <si>
-    <t>settlement_schedule_02</t>
-  </si>
-  <si>
-    <t>WorkingDay</t>
-  </si>
-  <si>
-    <t>NOV</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>reconcilation_request_01</t>
-  </si>
-  <si>
-    <t>reconcilation_request_02</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>home_page_01</t>
-  </si>
-  <si>
-    <t>Mirrored Messages Failures</t>
-  </si>
-  <si>
-    <t>System Not Reconciled</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>settlement_filter_01</t>
-  </si>
-  <si>
     <t>IgnoreTest</t>
   </si>
   <si>
     <t>Consider Test</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>settlement_filter_02</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>filter_one_value</t>
-  </si>
-  <si>
-    <t>Messages Processing Failures</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>product_page_01</t>
   </si>
   <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>SearchText</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Jaya</t>
+  </si>
+  <si>
+    <t>Shetty</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>[]]]]</t>
+  </si>
+  <si>
+    <t>&amp;&amp;%</t>
+  </si>
+  <si>
+    <t>)#@</t>
+  </si>
+  <si>
+    <t>product_page_02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,17 +122,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -240,40 +146,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -590,179 +479,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.85546875" style="6" customWidth="1"/>
-    <col min="11" max="12" width="9.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>29</v>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -771,264 +562,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1223,15 +760,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E95D81F-F9C2-417F-8E27-33C01076B1D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{760CDC5E-B112-4625-82D6-34274D1460CF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1256,10 +797,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{760CDC5E-B112-4625-82D6-34274D1460CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E95D81F-F9C2-417F-8E27-33C01076B1D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>